--- a/src/main/java/company/saifPro/TestData/TestData.xlsx
+++ b/src/main/java/company/saifPro/TestData/TestData.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/seleniumHybridFramework/hybridFramework/src/main/java/com/hybridFramework/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13440" windowHeight="3600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>userName</t>
   </si>
@@ -118,13 +114,19 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>y1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -273,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -450,26 +452,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -513,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -524,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,15 +548,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -572,16 +574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -601,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -621,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -641,7 +643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>24</v>
       </c>
